--- a/data/salmon data/data for analysis/PWS_Wild_Pink_final.xlsx
+++ b/data/salmon data/data for analysis/PWS_Wild_Pink_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15800" tabRatio="500"/>
@@ -974,7 +974,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="288">
+  <cellStyleXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1111,6 +1111,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1294,7 +1300,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="288">
+  <cellStyles count="294">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1438,6 +1444,9 @@
     <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1581,6 +1590,9 @@
     <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Pink_hat" xfId="135"/>
   </cellStyles>
@@ -1914,7 +1926,7 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1"/>
+      <selection activeCell="E42" sqref="E42:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3859,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N21" s="18">
         <v>297246327</v>
@@ -3964,22 +3976,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="10">
         <v>0</v>
       </c>
       <c r="L22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="10">
-        <v>0</v>
+        <v>-0.94736841999999999</v>
       </c>
       <c r="N22" s="18">
         <v>532044543</v>
@@ -4081,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>-0.94736841999999999</v>
       </c>
       <c r="K23" s="10">
         <v>0</v>
       </c>
       <c r="L23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="10">
-        <v>0</v>
+        <v>-0.89473683999999998</v>
       </c>
       <c r="N23" s="18">
         <v>517869725</v>
@@ -4195,22 +4207,22 @@
         <v>-0.94736841999999999</v>
       </c>
       <c r="H24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>-1</v>
+        <v>-0.89473683999999998</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
       </c>
       <c r="L24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="10">
-        <v>0</v>
+        <v>-0.84210525999999997</v>
       </c>
       <c r="N24" s="18">
         <v>617247527</v>
@@ -4318,16 +4330,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>-0.94736841999999999</v>
+        <v>-0.84210525999999997</v>
       </c>
       <c r="K25" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="10">
         <v>1</v>
       </c>
       <c r="M25" s="10">
-        <v>-1</v>
+        <v>-0.78947367999999996</v>
       </c>
       <c r="N25" s="18">
         <v>605425238</v>
@@ -4435,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>-0.89473683999999998</v>
+        <v>-0.78947367999999996</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
@@ -4444,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="10">
-        <v>-0.94736841999999999</v>
+        <v>-0.73684210999999999</v>
       </c>
       <c r="N26" s="18">
         <v>495701890</v>
@@ -4552,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>-0.84210525999999997</v>
+        <v>-0.73684210999999999</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
@@ -4561,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="10">
-        <v>-0.89473683999999998</v>
+        <v>-0.68421052999999998</v>
       </c>
       <c r="N27" s="18">
         <v>567320525</v>
@@ -4669,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="4">
-        <v>-0.78947367999999996</v>
+        <v>-0.68421052999999998</v>
       </c>
       <c r="K28" s="10">
         <v>0</v>
@@ -4678,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="10">
-        <v>-0.84210525999999997</v>
+        <v>-0.63157894999999997</v>
       </c>
       <c r="N28" s="18">
         <v>489220608</v>
@@ -4786,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>-0.73684210999999999</v>
+        <v>-0.63157894999999997</v>
       </c>
       <c r="K29" s="10">
         <v>0</v>
@@ -4795,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="10">
-        <v>-0.78947367999999996</v>
+        <v>-0.57894736999999996</v>
       </c>
       <c r="N29" s="18">
         <v>613158229</v>
@@ -4903,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="4">
-        <v>-0.68421052999999998</v>
+        <v>-0.57894736999999996</v>
       </c>
       <c r="K30" s="10">
         <v>0</v>
@@ -4912,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="10">
-        <v>-0.73684210999999999</v>
+        <v>-0.52631578999999995</v>
       </c>
       <c r="N30" s="18">
         <v>641675427</v>
@@ -5020,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="4">
-        <v>-0.63157894999999997</v>
+        <v>-0.52631578999999995</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
@@ -5029,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="10">
-        <v>-0.68421052999999998</v>
+        <v>-0.47368420999999999</v>
       </c>
       <c r="N31" s="18">
         <v>483704011</v>
@@ -5138,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="4">
-        <v>-0.57894736999999996</v>
+        <v>-0.47368420999999999</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
@@ -5147,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="10">
-        <v>-0.63157894999999997</v>
+        <v>-0.42105262999999998</v>
       </c>
       <c r="N32" s="18">
         <v>542383070</v>
@@ -5255,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="4">
-        <v>-0.52631578999999995</v>
+        <v>-0.42105262999999998</v>
       </c>
       <c r="K33" s="10">
         <v>0</v>
@@ -5264,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="M33" s="10">
-        <v>-0.57894736999999996</v>
+        <v>-0.36842105000000003</v>
       </c>
       <c r="N33" s="18">
         <v>602128903</v>
@@ -5372,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="4">
-        <v>-0.47368420999999999</v>
+        <v>-0.36842105000000003</v>
       </c>
       <c r="K34" s="10">
         <v>0</v>
@@ -5381,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="10">
-        <v>-0.52631578999999995</v>
+        <v>-0.31578947000000002</v>
       </c>
       <c r="N34" s="18">
         <v>586607038</v>
@@ -5489,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="4">
-        <v>-0.42105262999999998</v>
+        <v>-0.31578947000000002</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
@@ -5498,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="10">
-        <v>-0.47368420999999999</v>
+        <v>-0.26315789000000001</v>
       </c>
       <c r="N35" s="18">
         <v>621062096</v>
@@ -5606,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="4">
-        <v>-0.36842105000000003</v>
+        <v>-0.26315789000000001</v>
       </c>
       <c r="K36" s="10">
         <v>0</v>
@@ -5615,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="10">
-        <v>-0.42105262999999998</v>
+        <v>-0.21052631999999999</v>
       </c>
       <c r="N36" s="18">
         <v>603754659</v>
@@ -5723,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="4">
-        <v>-0.31578947000000002</v>
+        <v>-0.21052631999999999</v>
       </c>
       <c r="K37" s="10">
         <v>0</v>
@@ -5732,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="10">
-        <v>-0.36842105000000003</v>
+        <v>-0.15789474000000001</v>
       </c>
       <c r="N37" s="18">
         <v>607943252</v>
@@ -5840,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <v>-0.26315789000000001</v>
+        <v>-0.15789474000000001</v>
       </c>
       <c r="K38" s="10">
         <v>0</v>
@@ -5849,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="10">
-        <v>-0.31578947000000002</v>
+        <v>-0.10526315999999999</v>
       </c>
       <c r="N38" s="18">
         <v>638846859</v>
@@ -5957,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="4">
-        <v>-0.21052631999999999</v>
+        <v>-0.10526315999999999</v>
       </c>
       <c r="K39" s="10">
         <v>0</v>
@@ -5966,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="10">
-        <v>-0.26315789000000001</v>
+        <v>-5.2631579999999997E-2</v>
       </c>
       <c r="N39" s="18">
         <v>564053077</v>
@@ -6074,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>-0.15789474000000001</v>
+        <v>-5.2631579999999997E-2</v>
       </c>
       <c r="K40" s="10">
         <v>0</v>
@@ -6083,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="10">
-        <v>-0.21052631999999999</v>
+        <v>0</v>
       </c>
       <c r="N40" s="18">
         <v>599490314</v>
@@ -6184,14 +6196,14 @@
       <c r="G41" s="4">
         <v>-5.2631579999999997E-2</v>
       </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
-      </c>
-      <c r="J41" s="4">
-        <v>-0.10526315999999999</v>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
       </c>
       <c r="K41" s="10">
         <v>0</v>
@@ -6200,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="M41" s="10">
-        <v>-0.15789474000000001</v>
+        <v>0</v>
       </c>
       <c r="N41" s="18">
         <v>617608302</v>
@@ -6292,23 +6304,23 @@
         <f t="shared" si="0"/>
         <v>3.2897871435801869</v>
       </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4">
-        <v>-5.2631579999999997E-2</v>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
       </c>
       <c r="K42" s="10">
         <v>0</v>
@@ -6317,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="10">
-        <v>-0.10526315999999999</v>
+        <v>0</v>
       </c>
       <c r="N42" s="18">
         <v>610639850</v>
@@ -6406,19 +6418,22 @@
         <f t="shared" si="0"/>
         <v>3.2362126347492222</v>
       </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4">
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1</v>
+      </c>
+      <c r="J43" s="10">
         <v>0</v>
       </c>
       <c r="K43" s="10">
@@ -6428,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="10">
-        <v>-5.2631579999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="18">
         <v>640202598</v>
@@ -6513,17 +6528,23 @@
         <f t="shared" si="0"/>
         <v>1.1385829849813196</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1</v>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
       </c>
       <c r="K44" s="10">
         <v>0</v>
@@ -6617,17 +6638,23 @@
         <f t="shared" si="0"/>
         <v>2.7274723204716054</v>
       </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>1</v>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
       </c>
       <c r="K45" s="10">
         <v>0</v>
@@ -6635,7 +6662,9 @@
       <c r="L45" s="10">
         <v>1</v>
       </c>
-      <c r="M45" s="10"/>
+      <c r="M45" s="10">
+        <v>0</v>
+      </c>
       <c r="N45" s="18">
         <v>641603439</v>
       </c>
@@ -6711,17 +6740,23 @@
         <f t="shared" si="0"/>
         <v>1.3072979646721865</v>
       </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1</v>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
       </c>
       <c r="K46" s="10">
         <v>0</v>
@@ -6729,7 +6764,9 @@
       <c r="L46" s="10">
         <v>1</v>
       </c>
-      <c r="M46" s="10"/>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
       <c r="N46" s="18">
         <v>673526737</v>
       </c>
@@ -6799,17 +6836,23 @@
         <v>30710798.288990825</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1</v>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
       </c>
       <c r="K47" s="10">
         <v>0</v>
@@ -6817,7 +6860,9 @@
       <c r="L47" s="10">
         <v>1</v>
       </c>
-      <c r="M47" s="10"/>
+      <c r="M47" s="10">
+        <v>0</v>
+      </c>
       <c r="N47" s="18">
         <v>599576748</v>
       </c>
@@ -6878,17 +6923,23 @@
         <v>4219080.6330275228</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
       </c>
       <c r="K48" s="10">
         <v>0</v>
@@ -6896,7 +6947,9 @@
       <c r="L48" s="10">
         <v>1</v>
       </c>
-      <c r="M48" s="10"/>
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
       <c r="N48" s="18">
         <v>672936541</v>
       </c>

--- a/data/salmon data/data for analysis/PWS_Wild_Pink_final.xlsx
+++ b/data/salmon data/data for analysis/PWS_Wild_Pink_final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15800" tabRatio="500"/>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>BroodYear</t>
   </si>
@@ -868,6 +868,12 @@
   </si>
   <si>
     <t>ad.hatchPinkRun.lag1</t>
+  </si>
+  <si>
+    <t>discharge.lag0</t>
+  </si>
+  <si>
+    <t>discharge.lag1</t>
   </si>
 </sst>
 </file>
@@ -957,12 +963,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -974,7 +986,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="294">
+  <cellStyleXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1269,8 +1281,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1299,8 +1313,11 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="294">
+  <cellStyles count="296">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1447,6 +1464,7 @@
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1593,6 +1611,7 @@
     <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Pink_hat" xfId="135"/>
   </cellStyles>
@@ -1923,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:G48"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1937,17 +1956,17 @@
     <col min="4" max="4" width="12.33203125" style="4" customWidth="1"/>
     <col min="5" max="28" width="11" style="4" customWidth="1"/>
     <col min="29" max="29" width="18.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11" style="4" customWidth="1"/>
-    <col min="33" max="33" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" style="4" customWidth="1"/>
-    <col min="35" max="36" width="10.83203125" style="4"/>
-    <col min="37" max="37" width="10.83203125" style="9"/>
-    <col min="38" max="38" width="10.83203125" style="4"/>
+    <col min="30" max="34" width="11" style="4" customWidth="1"/>
+    <col min="35" max="35" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" style="4" customWidth="1"/>
+    <col min="37" max="38" width="10.83203125" style="4"/>
     <col min="39" max="39" width="10.83203125" style="9"/>
-    <col min="40" max="16384" width="10.83203125" style="4"/>
+    <col min="40" max="40" width="10.83203125" style="4"/>
+    <col min="41" max="41" width="10.83203125" style="9"/>
+    <col min="42" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:40" ht="16">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2044,26 +2063,32 @@
       <c r="AF1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16">
+    <row r="2" spans="1:40" ht="16">
       <c r="A2" s="13">
         <v>1968</v>
       </c>
@@ -2109,26 +2134,32 @@
       <c r="AD2" s="16">
         <v>630023.0207994153</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="25">
+        <v>250558.67050000001</v>
+      </c>
+      <c r="AH2" s="25">
+        <v>267230.38510000001</v>
+      </c>
+      <c r="AI2">
         <v>8.4051852402863698</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>7.6051851290243597</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AK2" s="4">
         <v>-23.25</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AL2" s="4">
         <v>-44.75</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AM2" s="4">
         <v>4.6666666670000003</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AN2" s="4">
         <v>11.66666667</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16">
+    <row r="3" spans="1:40" ht="16">
       <c r="A3" s="13">
         <v>1969</v>
       </c>
@@ -2185,26 +2216,32 @@
       <c r="AD3" s="16">
         <v>1177618.2524310309</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="25">
+        <v>259762.7947</v>
+      </c>
+      <c r="AH3" s="25">
+        <v>250558.67050000001</v>
+      </c>
+      <c r="AI3">
         <v>7.6051851290243597</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>7.9281480753863303</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AK3" s="4">
         <v>-44.75</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AL3" s="4">
         <v>-9.3333333333333321</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AM3" s="4">
         <v>11.66666667</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AN3" s="4">
         <v>-18.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16">
+    <row r="4" spans="1:40" ht="16">
       <c r="A4" s="13">
         <v>1970</v>
       </c>
@@ -2269,26 +2306,32 @@
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="5"/>
-      <c r="AG4">
+      <c r="AG4" s="25">
+        <v>262705.315</v>
+      </c>
+      <c r="AH4" s="25">
+        <v>259762.7947</v>
+      </c>
+      <c r="AI4">
         <v>7.9281480753863303</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>7.2125925841154901</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AK4" s="4">
         <v>-9.3333333333333321</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AL4" s="4">
         <v>20.833333333333336</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AM4" s="4">
         <v>-18.5</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AN4" s="4">
         <v>-13</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16">
+    <row r="5" spans="1:40" ht="16">
       <c r="A5" s="13">
         <v>1971</v>
       </c>
@@ -2353,26 +2396,32 @@
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="5"/>
-      <c r="AG5">
+      <c r="AG5" s="25">
+        <v>237275.0607</v>
+      </c>
+      <c r="AH5" s="25">
+        <v>262705.315</v>
+      </c>
+      <c r="AI5">
         <v>7.2125925841154901</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>7.13222221974973</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AK5" s="4">
         <v>20.833333333333336</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AL5" s="4">
         <v>-24.916666666666668</v>
       </c>
-      <c r="AK5" s="4">
+      <c r="AM5" s="4">
         <v>-13</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AN5" s="4">
         <v>10.16666667</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16">
+    <row r="6" spans="1:40" ht="16">
       <c r="A6" s="13">
         <v>1972</v>
       </c>
@@ -2439,26 +2488,32 @@
         <v>292211</v>
       </c>
       <c r="AF6" s="5"/>
-      <c r="AG6">
+      <c r="AG6" s="25">
+        <v>227100.2844</v>
+      </c>
+      <c r="AH6" s="25">
+        <v>237275.0607</v>
+      </c>
+      <c r="AI6">
         <v>7.13222221974973</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>7.3099999957614497</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AK6" s="4">
         <v>-24.916666666666668</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AL6" s="4">
         <v>29.666666666666668</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AM6" s="4">
         <v>10.16666667</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AN6" s="4">
         <v>-8.8333333330000006</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="16">
+    <row r="7" spans="1:40" ht="16">
       <c r="A7" s="13">
         <v>1973</v>
       </c>
@@ -2525,26 +2580,32 @@
         <v>684035</v>
       </c>
       <c r="AF7" s="5"/>
-      <c r="AG7">
+      <c r="AG7" s="25">
+        <v>217824.0711</v>
+      </c>
+      <c r="AH7" s="25">
+        <v>227100.2844</v>
+      </c>
+      <c r="AI7">
         <v>7.3099999957614497</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>8.0603703569482903</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AK7" s="4">
         <v>29.666666666666668</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AL7" s="4">
         <v>8.25</v>
       </c>
-      <c r="AK7" s="4">
+      <c r="AM7" s="4">
         <v>-8.8333333330000006</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AN7" s="4">
         <v>9.6666666669999994</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16">
+    <row r="8" spans="1:40" ht="16">
       <c r="A8" s="13">
         <v>1974</v>
       </c>
@@ -2611,26 +2672,32 @@
         <v>314560</v>
       </c>
       <c r="AF8" s="5"/>
-      <c r="AG8">
+      <c r="AG8" s="25">
+        <v>279620.43199999997</v>
+      </c>
+      <c r="AH8" s="25">
+        <v>217824.0711</v>
+      </c>
+      <c r="AI8">
         <v>8.0603703569482903</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>7.2840740592391402</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AK8" s="4">
         <v>8.25</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AL8" s="4">
         <v>12.75</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AM8" s="4">
         <v>9.6666666669999994</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AN8" s="4">
         <v>8.1666666669999994</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16">
+    <row r="9" spans="1:40" ht="16">
       <c r="A9" s="13">
         <v>1975</v>
       </c>
@@ -2697,26 +2764,32 @@
         <v>1221109</v>
       </c>
       <c r="AF9" s="5"/>
-      <c r="AG9">
+      <c r="AG9" s="25">
+        <v>252906.58540000001</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>279620.43199999997</v>
+      </c>
+      <c r="AI9">
         <v>7.2840740592391402</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>7.6759259612472004</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AK9" s="4">
         <v>12.75</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AL9" s="4">
         <v>-19.666666666666664</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AM9" s="4">
         <v>8.1666666669999994</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AN9" s="4">
         <v>14.5</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16">
+    <row r="10" spans="1:40" ht="16">
       <c r="A10" s="13">
         <v>1976</v>
       </c>
@@ -2786,26 +2859,32 @@
         <v>255444</v>
       </c>
       <c r="AF10" s="5"/>
-      <c r="AG10">
+      <c r="AG10" s="25">
+        <v>327652.45390000002</v>
+      </c>
+      <c r="AH10" s="25">
+        <v>252906.58540000001</v>
+      </c>
+      <c r="AI10">
         <v>7.6759259612472004</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>8.5355555039864992</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AK10" s="4">
         <v>-19.666666666666664</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AL10" s="4">
         <v>-8.8333333333333321</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AM10" s="4">
         <v>14.5</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AN10" s="4">
         <v>0.33333333300000001</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16">
+    <row r="11" spans="1:40" ht="16">
       <c r="A11" s="13">
         <v>1977</v>
       </c>
@@ -2875,26 +2954,32 @@
         <v>125504.71428571429</v>
       </c>
       <c r="AF11" s="5"/>
-      <c r="AG11">
+      <c r="AG11" s="25">
+        <v>306782.9817</v>
+      </c>
+      <c r="AH11" s="25">
+        <v>327652.45390000002</v>
+      </c>
+      <c r="AI11">
         <v>8.5355555039864992</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>7.9844444416187397</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AK11" s="4">
         <v>-8.8333333333333321</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AL11" s="4">
         <v>20.666666666666664</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AM11" s="4">
         <v>0.33333333300000001</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AN11" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16">
+    <row r="12" spans="1:40" ht="16">
       <c r="A12" s="13">
         <v>1978</v>
       </c>
@@ -2964,26 +3049,32 @@
         <v>460922.92063492065</v>
       </c>
       <c r="AF12" s="5"/>
-      <c r="AG12">
+      <c r="AG12" s="25">
+        <v>240079.23989999999</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>306782.9817</v>
+      </c>
+      <c r="AI12">
         <v>7.9844444416187397</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>8.24148146311442</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AK12" s="4">
         <v>20.666666666666664</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AL12" s="4">
         <v>-7.25</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AM12" s="4">
         <v>6</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AN12" s="4">
         <v>-7.3333333329999997</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16">
+    <row r="13" spans="1:40" ht="16">
       <c r="A13" s="13">
         <v>1979</v>
       </c>
@@ -3068,26 +3159,32 @@
         <v>698076.1825396826</v>
       </c>
       <c r="AF13" s="5"/>
-      <c r="AG13">
+      <c r="AG13" s="25">
+        <v>253325.39550000001</v>
+      </c>
+      <c r="AH13" s="25">
+        <v>240079.23989999999</v>
+      </c>
+      <c r="AI13">
         <v>8.24148146311442</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>7.8788888542740398</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AK13" s="4">
         <v>-7.25</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AL13" s="4">
         <v>-17.916666666666668</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AM13" s="4">
         <v>-7.3333333329999997</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AN13" s="4">
         <v>-9.1666666669999994</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16">
+    <row r="14" spans="1:40" ht="16">
       <c r="A14" s="13">
         <v>1980</v>
       </c>
@@ -3172,26 +3269,32 @@
         <v>664097.9444444445</v>
       </c>
       <c r="AF14" s="5"/>
-      <c r="AG14">
+      <c r="AG14" s="26">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AH14" s="26">
+        <v>253325.39550000001</v>
+      </c>
+      <c r="AI14">
         <v>7.8788888542740398</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>8.7985185163992394</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AK14" s="4">
         <v>-17.916666666666668</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AL14" s="4">
         <v>-50.833333333333336</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AM14" s="4">
         <v>-9.1666666669999994</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AN14" s="4">
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16">
+    <row r="15" spans="1:40" ht="16">
       <c r="A15" s="13">
         <v>1981</v>
       </c>
@@ -3276,26 +3379,32 @@
         <v>385054.20634920633</v>
       </c>
       <c r="AF15" s="5"/>
-      <c r="AG15">
+      <c r="AG15" s="25">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>300235.94949999999</v>
+      </c>
+      <c r="AI15">
         <v>8.7985185163992394</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>7.7959259351094596</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AK15" s="4">
         <v>-50.833333333333336</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AL15" s="4">
         <v>5</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AM15" s="4">
         <v>3.3333333330000001</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AN15" s="4">
         <v>-22.833333329999999</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16">
+    <row r="16" spans="1:40" ht="16">
       <c r="A16" s="13">
         <v>1982</v>
       </c>
@@ -3382,26 +3491,32 @@
       <c r="AF16" s="3">
         <v>310761</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="25">
+        <v>220808.3033</v>
+      </c>
+      <c r="AH16" s="25">
+        <v>298314.11200000002</v>
+      </c>
+      <c r="AI16">
         <v>7.7959259351094596</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>8.7937037679884202</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AK16" s="4">
         <v>5</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AL16" s="4">
         <v>28.583333333333332</v>
       </c>
-      <c r="AK16" s="4">
+      <c r="AM16" s="4">
         <v>-22.833333329999999</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AN16" s="4">
         <v>-5.8333333329999997</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="16">
+    <row r="17" spans="1:40" ht="16">
       <c r="A17" s="13">
         <v>1983</v>
       </c>
@@ -3491,26 +3606,32 @@
       <c r="AF17" s="3">
         <v>354604</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="25">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>220808.3033</v>
+      </c>
+      <c r="AI17">
         <v>8.7937037679884202</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <v>8.7748148176405198</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AK17" s="4">
         <v>28.583333333333332</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AL17" s="4">
         <v>-5.25</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AM17" s="4">
         <v>-5.8333333329999997</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AN17" s="4">
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="16">
+    <row r="18" spans="1:40" ht="16">
       <c r="A18" s="13">
         <v>1984</v>
       </c>
@@ -3598,26 +3719,32 @@
       <c r="AF18" s="3">
         <v>508173</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="25">
+        <v>252524.6678</v>
+      </c>
+      <c r="AH18" s="25">
+        <v>283441.22100000002</v>
+      </c>
+      <c r="AI18">
         <v>8.7748148176405198</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
         <v>7.8096296698958803</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AK18" s="4">
         <v>-5.25</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AL18" s="4">
         <v>5.916666666666667</v>
       </c>
-      <c r="AK18" s="4">
+      <c r="AM18" s="4">
         <v>6.6666666670000003</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AN18" s="4">
         <v>-18.166666670000001</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16">
+    <row r="19" spans="1:40" ht="16">
       <c r="A19" s="13">
         <v>1985</v>
       </c>
@@ -3709,26 +3836,32 @@
       <c r="AF19" s="3">
         <v>296018</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="25">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AH19" s="25">
+        <v>252524.6678</v>
+      </c>
+      <c r="AI19">
         <v>7.8096296698958803</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>7.9125925699869804</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AK19" s="4">
         <v>5.916666666666667</v>
       </c>
-      <c r="AJ19" s="4">
+      <c r="AL19" s="4">
         <v>23.416666666666668</v>
       </c>
-      <c r="AK19" s="4">
+      <c r="AM19" s="4">
         <v>-18.166666670000001</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AN19" s="4">
         <v>-14.5</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="16">
+    <row r="20" spans="1:40" ht="16">
       <c r="A20" s="13">
         <v>1986</v>
       </c>
@@ -3819,26 +3952,32 @@
       <c r="AF20" s="3">
         <v>439877</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="25">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AH20" s="25">
+        <v>279179.23259999999</v>
+      </c>
+      <c r="AI20">
         <v>7.9125925699869804</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>8.2011110694320095</v>
       </c>
-      <c r="AI20" s="4">
+      <c r="AK20" s="4">
         <v>23.416666666666668</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AL20" s="4">
         <v>16.416666666666668</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AM20" s="4">
         <v>-14.5</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AN20" s="4">
         <v>-13.83333333</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="16">
+    <row r="21" spans="1:40" ht="16">
       <c r="A21" s="13">
         <v>1987</v>
       </c>
@@ -3933,26 +4072,32 @@
       <c r="AF21" s="3">
         <v>693050</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="25">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AH21" s="25">
+        <v>332840.14799999999</v>
+      </c>
+      <c r="AI21">
         <v>8.2011110694320095</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>8.2466666610152597</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AK21" s="4">
         <v>16.416666666666668</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AL21" s="4">
         <v>30.666666666666668</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AM21" s="4">
         <v>-13.83333333</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AN21" s="4">
         <v>-19.833333329999999</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16">
+    <row r="22" spans="1:40" ht="16">
       <c r="A22" s="13">
         <v>1988</v>
       </c>
@@ -4047,26 +4192,32 @@
       <c r="AF22" s="3">
         <v>321770</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="25">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AH22" s="25">
+        <v>384128.02600000001</v>
+      </c>
+      <c r="AI22">
         <v>8.2466666610152597</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
         <v>8.3911111972950092</v>
       </c>
-      <c r="AI22" s="4">
+      <c r="AK22" s="4">
         <v>30.666666666666668</v>
       </c>
-      <c r="AJ22" s="4">
+      <c r="AL22" s="4">
         <v>48.833333333333329</v>
       </c>
-      <c r="AK22" s="4">
+      <c r="AM22" s="4">
         <v>-19.833333329999999</v>
       </c>
-      <c r="AL22" s="4">
+      <c r="AN22" s="4">
         <v>-4.1666666670000003</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16">
+    <row r="23" spans="1:40" ht="16">
       <c r="A23" s="13">
         <v>1989</v>
       </c>
@@ -4164,26 +4315,32 @@
       <c r="AF23" s="3">
         <v>139524</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="25">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AH23" s="25">
+        <v>324591.42239999998</v>
+      </c>
+      <c r="AI23">
         <v>8.3911111972950092</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
         <v>8.2200000021192796</v>
       </c>
-      <c r="AI23" s="4">
+      <c r="AK23" s="4">
         <v>48.833333333333329</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AL23" s="4">
         <v>19.583333333333332</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AM23" s="4">
         <v>-4.1666666670000003</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AN23" s="4">
         <v>6.8333333329999997</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="16">
+    <row r="24" spans="1:40" ht="16">
       <c r="A24" s="13">
         <v>1990</v>
       </c>
@@ -4281,26 +4438,32 @@
       <c r="AF24" s="3">
         <v>343498</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="25">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AH24" s="25">
+        <v>264924.88630000001</v>
+      </c>
+      <c r="AI24">
         <v>8.2200000021192796</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <v>7.7455554714909303</v>
       </c>
-      <c r="AI24" s="4">
+      <c r="AK24" s="4">
         <v>19.583333333333332</v>
       </c>
-      <c r="AJ24" s="4">
+      <c r="AL24" s="4">
         <v>54.666666666666671</v>
       </c>
-      <c r="AK24" s="4">
+      <c r="AM24" s="4">
         <v>6.8333333329999997</v>
       </c>
-      <c r="AL24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="16">
+      <c r="AN24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="16">
       <c r="A25" s="13">
         <v>1991</v>
       </c>
@@ -4398,26 +4561,32 @@
       <c r="AF25" s="3">
         <v>235820</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="25">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AH25" s="25">
+        <v>280384.98440000002</v>
+      </c>
+      <c r="AI25">
         <v>7.7455554714909303</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <v>7.9562963026541196</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AK25" s="4">
         <v>54.666666666666671</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AL25" s="4">
         <v>23.25</v>
       </c>
-      <c r="AK25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="4">
+      <c r="AM25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="4">
         <v>-7.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="16">
+    <row r="26" spans="1:40" ht="16">
       <c r="A26" s="13">
         <v>1992</v>
       </c>
@@ -4515,26 +4684,32 @@
       <c r="AF26" s="3">
         <v>289183</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="25">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AH26" s="25">
+        <v>342386.86119999998</v>
+      </c>
+      <c r="AI26">
         <v>7.9562963026541196</v>
       </c>
-      <c r="AH26">
+      <c r="AJ26">
         <v>8.4825926180239097</v>
       </c>
-      <c r="AI26" s="4">
+      <c r="AK26" s="4">
         <v>23.25</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AL26" s="4">
         <v>18.25</v>
       </c>
-      <c r="AK26" s="4">
+      <c r="AM26" s="4">
         <v>-7.5</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AN26" s="4">
         <v>3.3333333330000001</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="16">
+    <row r="27" spans="1:40" ht="16">
       <c r="A27" s="13">
         <v>1993</v>
       </c>
@@ -4632,26 +4807,32 @@
       <c r="AF27" s="3">
         <v>449442</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="25">
+        <v>292579.9914</v>
+      </c>
+      <c r="AH27" s="25">
+        <v>337632.12900000002</v>
+      </c>
+      <c r="AI27">
         <v>8.4825926180239097</v>
       </c>
-      <c r="AH27">
+      <c r="AJ27">
         <v>8.4777777813099107</v>
       </c>
-      <c r="AI27" s="4">
+      <c r="AK27" s="4">
         <v>18.25</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AL27" s="4">
         <v>-1</v>
       </c>
-      <c r="AK27" s="4">
+      <c r="AM27" s="4">
         <v>3.3333333330000001</v>
       </c>
-      <c r="AL27" s="4">
+      <c r="AN27" s="4">
         <v>-21.166666670000001</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="16">
+    <row r="28" spans="1:40" ht="16">
       <c r="A28" s="13">
         <v>1994</v>
       </c>
@@ -4749,26 +4930,32 @@
       <c r="AF28" s="3">
         <v>336190</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="25">
+        <v>299951.5405</v>
+      </c>
+      <c r="AH28" s="25">
+        <v>292579.9914</v>
+      </c>
+      <c r="AI28">
         <v>8.4777777813099107</v>
       </c>
-      <c r="AH28">
+      <c r="AJ28">
         <v>7.9140740500556097</v>
       </c>
-      <c r="AI28" s="4">
+      <c r="AK28" s="4">
         <v>-1</v>
       </c>
-      <c r="AJ28" s="4">
+      <c r="AL28" s="4">
         <v>2.666666666666667</v>
       </c>
-      <c r="AK28" s="4">
+      <c r="AM28" s="4">
         <v>-21.166666670000001</v>
       </c>
-      <c r="AL28" s="4">
+      <c r="AN28" s="4">
         <v>-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="16">
+    <row r="29" spans="1:40" ht="16">
       <c r="A29" s="13">
         <v>1995</v>
       </c>
@@ -4866,26 +5053,32 @@
       <c r="AF29" s="3">
         <v>327209</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="25">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AH29" s="25">
+        <v>299951.5405</v>
+      </c>
+      <c r="AI29">
         <v>7.9140740500556097</v>
       </c>
-      <c r="AH29">
+      <c r="AJ29">
         <v>8.0744444352609097</v>
       </c>
-      <c r="AI29" s="4">
+      <c r="AK29" s="4">
         <v>2.666666666666667</v>
       </c>
-      <c r="AJ29" s="4">
+      <c r="AL29" s="4">
         <v>7.4166666666666661</v>
       </c>
-      <c r="AK29" s="4">
+      <c r="AM29" s="4">
         <v>-2</v>
       </c>
-      <c r="AL29" s="4">
+      <c r="AN29" s="4">
         <v>-18</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16">
+    <row r="30" spans="1:40" ht="16">
       <c r="A30" s="13">
         <v>1996</v>
       </c>
@@ -4983,26 +5176,32 @@
       <c r="AF30" s="3">
         <v>726883</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="25">
+        <v>252000.3579</v>
+      </c>
+      <c r="AH30" s="25">
+        <v>284705.64620000002</v>
+      </c>
+      <c r="AI30">
         <v>8.0744444352609097</v>
       </c>
-      <c r="AH30">
+      <c r="AJ30">
         <v>8.7462962821677905</v>
       </c>
-      <c r="AI30" s="4">
+      <c r="AK30" s="4">
         <v>7.4166666666666661</v>
       </c>
-      <c r="AJ30" s="4">
+      <c r="AL30" s="4">
         <v>-12.416666666666666</v>
       </c>
-      <c r="AK30" s="4">
+      <c r="AM30" s="4">
         <v>-18</v>
       </c>
-      <c r="AL30" s="4">
+      <c r="AN30" s="4">
         <v>14.33333333</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="16">
+    <row r="31" spans="1:40" ht="16">
       <c r="A31" s="13">
         <v>1997</v>
       </c>
@@ -5101,26 +5300,32 @@
       <c r="AF31" s="3">
         <v>577028</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="25">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AH31" s="25">
+        <v>252000.3579</v>
+      </c>
+      <c r="AI31">
         <v>8.7462962821677905</v>
       </c>
-      <c r="AH31">
+      <c r="AJ31">
         <v>8.4640740995053907</v>
       </c>
-      <c r="AI31" s="4">
+      <c r="AK31" s="4">
         <v>-12.416666666666666</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AL31" s="4">
         <v>33.833333333333329</v>
       </c>
-      <c r="AK31" s="4">
+      <c r="AM31" s="4">
         <v>14.33333333</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AN31" s="4">
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="16">
+    <row r="32" spans="1:40" ht="16">
       <c r="A32" s="13">
         <v>1998</v>
       </c>
@@ -5218,26 +5423,32 @@
       <c r="AF32" s="3">
         <v>238272</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" s="25">
+        <v>298739.391</v>
+      </c>
+      <c r="AH32" s="25">
+        <v>307158.12560000003</v>
+      </c>
+      <c r="AI32">
         <v>8.4640740995053907</v>
       </c>
-      <c r="AH32">
+      <c r="AJ32">
         <v>7.7792592578464097</v>
       </c>
-      <c r="AI32" s="4">
+      <c r="AK32" s="4">
         <v>33.833333333333329</v>
       </c>
-      <c r="AJ32" s="4">
+      <c r="AL32" s="4">
         <v>31.416666666666668</v>
       </c>
-      <c r="AK32" s="4">
+      <c r="AM32" s="4">
         <v>1.6666666670000001</v>
       </c>
-      <c r="AL32" s="4">
+      <c r="AN32" s="4">
         <v>-5.6666666670000003</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="16">
+    <row r="33" spans="1:40" ht="16">
       <c r="A33" s="13">
         <v>1999</v>
       </c>
@@ -5335,26 +5546,32 @@
       <c r="AF33" s="3">
         <v>73396</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="25">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AH33" s="25">
+        <v>298739.391</v>
+      </c>
+      <c r="AI33">
         <v>7.7792592578464097</v>
       </c>
-      <c r="AH33">
+      <c r="AJ33">
         <v>8.0377777064288107</v>
       </c>
-      <c r="AI33" s="4">
+      <c r="AK33" s="4">
         <v>31.416666666666668</v>
       </c>
-      <c r="AJ33" s="4">
+      <c r="AL33" s="4">
         <v>34.083333333333336</v>
       </c>
-      <c r="AK33" s="4">
+      <c r="AM33" s="4">
         <v>-5.6666666670000003</v>
       </c>
-      <c r="AL33" s="4">
+      <c r="AN33" s="4">
         <v>-0.66666666699999999</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="16">
+    <row r="34" spans="1:40" ht="16">
       <c r="A34" s="13">
         <v>2000</v>
       </c>
@@ -5452,26 +5669,32 @@
       <c r="AF34" s="3">
         <v>138982</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="25">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AH34" s="25">
+        <v>331117.17950000003</v>
+      </c>
+      <c r="AI34">
         <v>8.0377777064288107</v>
       </c>
-      <c r="AH34">
+      <c r="AJ34">
         <v>8.3318517296402508</v>
       </c>
-      <c r="AI34" s="4">
+      <c r="AK34" s="4">
         <v>34.083333333333336</v>
       </c>
-      <c r="AJ34" s="4">
+      <c r="AL34" s="4">
         <v>34.083333333333329</v>
       </c>
-      <c r="AK34" s="4">
+      <c r="AM34" s="4">
         <v>-0.66666666699999999</v>
       </c>
-      <c r="AL34" s="4">
+      <c r="AN34" s="4">
         <v>8.8333333330000006</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="16">
+    <row r="35" spans="1:40" ht="16">
       <c r="A35" s="13">
         <v>2001</v>
       </c>
@@ -5569,26 +5792,32 @@
       <c r="AF35" s="3">
         <v>198466</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="25">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AH35" s="25">
+        <v>324565.56290000002</v>
+      </c>
+      <c r="AI35">
         <v>8.3318517296402508</v>
       </c>
-      <c r="AH35">
+      <c r="AJ35">
         <v>7.9670371126245598</v>
       </c>
-      <c r="AI35" s="4">
+      <c r="AK35" s="4">
         <v>34.083333333333329</v>
       </c>
-      <c r="AJ35" s="4">
+      <c r="AL35" s="4">
         <v>20.166666666666664</v>
       </c>
-      <c r="AK35" s="4">
+      <c r="AM35" s="4">
         <v>8.8333333330000006</v>
       </c>
-      <c r="AL35" s="4">
+      <c r="AN35" s="4">
         <v>-12.83333333</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="16">
+    <row r="36" spans="1:40" ht="16">
       <c r="A36" s="13">
         <v>2002</v>
       </c>
@@ -5686,26 +5915,32 @@
       <c r="AF36" s="3">
         <v>348129</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" s="25">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AH36" s="25">
+        <v>281154.53499999997</v>
+      </c>
+      <c r="AI36">
         <v>7.9670371126245598</v>
       </c>
-      <c r="AH36">
+      <c r="AJ36">
         <v>8.9488888316684303</v>
       </c>
-      <c r="AI36" s="4">
+      <c r="AK36" s="4">
         <v>20.166666666666664</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AL36" s="4">
         <v>27</v>
       </c>
-      <c r="AK36" s="4">
+      <c r="AM36" s="4">
         <v>-12.83333333</v>
       </c>
-      <c r="AL36" s="4">
+      <c r="AN36" s="4">
         <v>4.6666666670000003</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16">
+    <row r="37" spans="1:40" ht="16">
       <c r="A37" s="13">
         <v>2003</v>
       </c>
@@ -5803,26 +6038,32 @@
       <c r="AF37" s="3">
         <v>293340</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="25">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AH37" s="25">
+        <v>313336.46509999997</v>
+      </c>
+      <c r="AI37">
         <v>8.9488888316684303</v>
       </c>
-      <c r="AH37">
+      <c r="AJ37">
         <v>8.7385185736197002</v>
       </c>
-      <c r="AI37" s="4">
+      <c r="AK37" s="4">
         <v>27</v>
       </c>
-      <c r="AJ37" s="4">
+      <c r="AL37" s="4">
         <v>-23.916666666666668</v>
       </c>
-      <c r="AK37" s="4">
+      <c r="AM37" s="4">
         <v>4.6666666670000003</v>
       </c>
-      <c r="AL37" s="4">
+      <c r="AN37" s="4">
         <v>-24.833333329999999</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="16">
+    <row r="38" spans="1:40" ht="16">
       <c r="A38" s="13">
         <v>2004</v>
       </c>
@@ -5920,26 +6161,32 @@
       <c r="AF38" s="3">
         <v>588227</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="25">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AH38" s="25">
+        <v>262465.37199999997</v>
+      </c>
+      <c r="AI38">
         <v>8.7385185736197002</v>
       </c>
-      <c r="AH38">
+      <c r="AJ38">
         <v>9.0259259365223095</v>
       </c>
-      <c r="AI38" s="4">
+      <c r="AK38" s="4">
         <v>-23.916666666666668</v>
       </c>
-      <c r="AJ38" s="4">
+      <c r="AL38" s="4">
         <v>-39.416666666666671</v>
       </c>
-      <c r="AK38" s="4">
+      <c r="AM38" s="4">
         <v>-24.833333329999999</v>
       </c>
-      <c r="AL38" s="4">
+      <c r="AN38" s="4">
         <v>-29.666666670000001</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="16">
+    <row r="39" spans="1:40" ht="16">
       <c r="A39" s="13">
         <v>2005</v>
       </c>
@@ -6037,26 +6284,32 @@
       <c r="AF39" s="3">
         <v>435769</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="25">
+        <v>319096.78320000001</v>
+      </c>
+      <c r="AH39" s="25">
+        <v>298415.46189999999</v>
+      </c>
+      <c r="AI39">
         <v>9.0259259365223095</v>
       </c>
-      <c r="AH39">
+      <c r="AJ39">
         <v>8.0211110468264</v>
       </c>
-      <c r="AI39" s="4">
+      <c r="AK39" s="4">
         <v>-39.416666666666671</v>
       </c>
-      <c r="AJ39" s="4">
+      <c r="AL39" s="4">
         <v>-20.833333333333332</v>
       </c>
-      <c r="AK39" s="4">
+      <c r="AM39" s="4">
         <v>-29.666666670000001</v>
       </c>
-      <c r="AL39" s="4">
+      <c r="AN39" s="4">
         <v>-82.5</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="16">
+    <row r="40" spans="1:40" ht="16">
       <c r="A40" s="13">
         <v>2006</v>
       </c>
@@ -6154,26 +6407,32 @@
       <c r="AF40" s="3">
         <v>567839</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" s="25">
+        <v>267765.34590000001</v>
+      </c>
+      <c r="AH40" s="25">
+        <v>319096.78320000001</v>
+      </c>
+      <c r="AI40">
         <v>8.0211110468264</v>
       </c>
-      <c r="AH40">
+      <c r="AJ40">
         <v>7.9996296211525202</v>
       </c>
-      <c r="AI40" s="4">
+      <c r="AK40" s="4">
         <v>-20.833333333333332</v>
       </c>
-      <c r="AJ40" s="4">
+      <c r="AL40" s="4">
         <v>10.083333333333334</v>
       </c>
-      <c r="AK40" s="4">
+      <c r="AM40" s="4">
         <v>-82.5</v>
       </c>
-      <c r="AL40" s="4">
+      <c r="AN40" s="4">
         <v>-29.333333329999999</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="16">
+    <row r="41" spans="1:40" ht="16">
       <c r="A41" s="13">
         <v>2007</v>
       </c>
@@ -6271,26 +6530,32 @@
       <c r="AF41" s="3">
         <v>364547</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="25">
+        <v>314611.1165</v>
+      </c>
+      <c r="AH41" s="25">
+        <v>267765.34590000001</v>
+      </c>
+      <c r="AI41">
         <v>7.9996296211525202</v>
       </c>
-      <c r="AH41">
+      <c r="AJ41">
         <v>7.6092592875162799</v>
       </c>
-      <c r="AI41" s="4">
+      <c r="AK41" s="4">
         <v>10.083333333333334</v>
       </c>
-      <c r="AJ41" s="4">
+      <c r="AL41" s="4">
         <v>15.499999999999998</v>
       </c>
-      <c r="AK41" s="4">
+      <c r="AM41" s="4">
         <v>-29.333333329999999</v>
       </c>
-      <c r="AL41" s="4">
+      <c r="AN41" s="4">
         <v>-18.333333329999999</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="16">
+    <row r="42" spans="1:40" ht="16">
       <c r="A42" s="13">
         <v>2008</v>
       </c>
@@ -6385,26 +6650,32 @@
       <c r="AF42" s="3">
         <v>401420</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" s="25">
+        <v>315397.29220000003</v>
+      </c>
+      <c r="AH42" s="25">
+        <v>314611.1165</v>
+      </c>
+      <c r="AI42">
         <v>7.6092592875162799</v>
       </c>
-      <c r="AH42">
+      <c r="AJ42">
         <v>7.7007407877180301</v>
       </c>
-      <c r="AI42" s="4">
+      <c r="AK42" s="4">
         <v>15.499999999999998</v>
       </c>
-      <c r="AJ42" s="4">
+      <c r="AL42" s="4">
         <v>42.583333333333329</v>
       </c>
-      <c r="AK42" s="4">
+      <c r="AM42" s="4">
         <v>-18.333333329999999</v>
       </c>
-      <c r="AL42" s="4">
+      <c r="AN42" s="4">
         <v>7.8333333329999997</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="16">
+    <row r="43" spans="1:40" ht="16">
       <c r="A43" s="13">
         <v>2009</v>
       </c>
@@ -6495,26 +6766,32 @@
       <c r="AF43" s="3">
         <v>171002</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="25">
+        <v>275038.97730000003</v>
+      </c>
+      <c r="AH43" s="25">
+        <v>315397.29220000003</v>
+      </c>
+      <c r="AI43">
         <v>7.7007407877180301</v>
       </c>
-      <c r="AH43">
+      <c r="AJ43">
         <v>8.1096295957212092</v>
       </c>
-      <c r="AI43" s="4">
+      <c r="AK43" s="4">
         <v>42.583333333333329</v>
       </c>
-      <c r="AJ43" s="4">
+      <c r="AL43" s="4">
         <v>67.25</v>
       </c>
-      <c r="AK43" s="4">
+      <c r="AM43" s="4">
         <v>7.8333333329999997</v>
       </c>
-      <c r="AL43" s="4">
+      <c r="AN43" s="4">
         <v>-1.8333333329999999</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16">
+    <row r="44" spans="1:40" ht="16">
       <c r="A44" s="13">
         <v>2010</v>
       </c>
@@ -6605,26 +6882,32 @@
       <c r="AF44" s="3">
         <v>279304</v>
       </c>
-      <c r="AG44">
+      <c r="AG44" s="25">
+        <v>292554.16009999998</v>
+      </c>
+      <c r="AH44" s="25">
+        <v>275038.97730000003</v>
+      </c>
+      <c r="AI44">
         <v>8.1096295957212092</v>
       </c>
-      <c r="AH44">
+      <c r="AJ44">
         <v>8.2070370073671697</v>
       </c>
-      <c r="AI44" s="4">
+      <c r="AK44" s="4">
         <v>67.25</v>
       </c>
-      <c r="AJ44" s="4">
+      <c r="AL44" s="4">
         <v>28.25</v>
       </c>
-      <c r="AK44" s="4">
+      <c r="AM44" s="4">
         <v>-1.8333333329999999</v>
       </c>
-      <c r="AL44" s="4">
+      <c r="AN44" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="16">
+    <row r="45" spans="1:40" ht="16">
       <c r="A45" s="13">
         <v>2011</v>
       </c>
@@ -6710,23 +6993,29 @@
       <c r="AF45" s="3">
         <v>249070</v>
       </c>
-      <c r="AG45">
+      <c r="AG45" s="25">
+        <v>273244.43440000003</v>
+      </c>
+      <c r="AH45" s="25">
+        <v>292554.16009999998</v>
+      </c>
+      <c r="AI45">
         <v>8.2070370073671697</v>
       </c>
-      <c r="AH45">
+      <c r="AJ45">
         <v>7.4955555509637897</v>
       </c>
-      <c r="AI45" s="4">
+      <c r="AK45" s="4">
         <v>28.25</v>
       </c>
-      <c r="AJ45" s="4">
+      <c r="AL45" s="4">
         <v>55.666666666666664</v>
       </c>
-      <c r="AK45" s="4">
+      <c r="AM45" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="16">
+    <row r="46" spans="1:40" ht="16">
       <c r="A46" s="13">
         <v>2012</v>
       </c>
@@ -6812,20 +7101,26 @@
       <c r="AF46" s="3">
         <v>251698</v>
       </c>
-      <c r="AG46">
+      <c r="AG46" s="25">
+        <v>308300.49810000003</v>
+      </c>
+      <c r="AH46" s="25">
+        <v>273244.43440000003</v>
+      </c>
+      <c r="AI46">
         <v>7.4955555509637897</v>
       </c>
-      <c r="AH46">
+      <c r="AJ46">
         <v>8.2214814468666404</v>
       </c>
-      <c r="AI46" s="4">
+      <c r="AK46" s="4">
         <v>55.666666666666664</v>
       </c>
-      <c r="AJ46" s="4">
+      <c r="AL46" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="16">
+    <row r="47" spans="1:40" ht="16">
       <c r="A47" s="13">
         <v>2013</v>
       </c>
@@ -6905,14 +7200,20 @@
       <c r="AF47" s="3">
         <v>166027</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="25">
+        <v>295016.70919999998</v>
+      </c>
+      <c r="AH47" s="25">
+        <v>308300.49810000003</v>
+      </c>
+      <c r="AI47">
         <v>8.2214814468666404</v>
       </c>
-      <c r="AH47">
+      <c r="AJ47">
         <v>8.5933333149662694</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16">
+    <row r="48" spans="1:40" ht="16">
       <c r="A48" s="13">
         <v>2014</v>
       </c>
@@ -6982,14 +7283,16 @@
       <c r="AF48" s="3">
         <v>168260</v>
       </c>
-      <c r="AG48">
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48">
         <v>8.5933333149662694</v>
       </c>
-      <c r="AH48" t="s">
+      <c r="AJ48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="11:28">
+    <row r="49" spans="11:34">
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -6998,8 +7301,10 @@
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
-    </row>
-    <row r="50" spans="11:28">
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="24"/>
+    </row>
+    <row r="50" spans="11:34">
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -7007,12 +7312,12 @@
       <c r="AA50"/>
       <c r="AB50"/>
     </row>
-    <row r="51" spans="11:28">
+    <row r="51" spans="11:34">
       <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
     </row>
-    <row r="52" spans="11:28">
+    <row r="52" spans="11:34">
       <c r="X52"/>
     </row>
   </sheetData>
